--- a/Week6/assignment/012724/Data formatted based on ERD.xlsx
+++ b/Week6/assignment/012724/Data formatted based on ERD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CamiloF\Documents\GitHub\BYU_CIT111\Week6\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CamiloF\Documents\GitHub\BYU_CIT111\Week6\assignment\012724\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F30146-6151-449A-BE20-78A08C7AEDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9866E7E1-9C94-4CAF-A731-57D73E9E34FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{7DAD6448-8A0E-4940-BF92-B2A09E13C70E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7DAD6448-8A0E-4940-BF92-B2A09E13C70E}"/>
   </bookViews>
   <sheets>
     <sheet name="College" sheetId="3" r:id="rId1"/>
@@ -304,6 +304,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,12 +338,16 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -382,10 +389,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3FB84D57-1891-4D46-8C11-E77161C5A65C}" name="course_id"/>
     <tableColumn id="2" xr3:uid="{72397416-1B3C-4FE4-A638-0F10EB6F9D9B}" name="course_title"/>
-    <tableColumn id="6" xr3:uid="{ECE16F19-F686-4381-9E4D-50CDEAA8A4F4}" name="course_num"/>
     <tableColumn id="3" xr3:uid="{F06B7693-A533-4E4E-9372-0C22532548E1}" name="credits"/>
     <tableColumn id="4" xr3:uid="{D2A59AAA-915C-49B5-A2B5-A3CD4EFBC9A2}" name="department_id"/>
     <tableColumn id="5" xr3:uid="{66B40783-4E35-4EED-A6B1-90C41DAAE693}" name="college_id"/>
+    <tableColumn id="6" xr3:uid="{ECE16F19-F686-4381-9E4D-50CDEAA8A4F4}" name="course_num"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -401,7 +408,7 @@
     <tableColumn id="4" xr3:uid="{8276A4C6-DD22-4FEC-BB42-09FB4D38FBC7}" name="gender"/>
     <tableColumn id="5" xr3:uid="{BEBAE448-9888-44BE-A486-DEFFBCCEDE1C}" name="city"/>
     <tableColumn id="6" xr3:uid="{B30FB618-50FE-4AAF-872F-4E75DF8887CE}" name="state"/>
-    <tableColumn id="7" xr3:uid="{5E22BE71-84E5-4A17-AF49-148CA99676B2}" name="birthdate"/>
+    <tableColumn id="7" xr3:uid="{5E22BE71-84E5-4A17-AF49-148CA99676B2}" name="birthdate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -756,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E47029-965D-446C-A86E-4757E5D1EF98}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,8 +809,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -812,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A19BF1-47E8-4B8C-B5D4-7663576691ED}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,8 +877,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -879,17 +888,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13166E3B-97C3-4FFF-BDE2-C8115B24DB3F}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,16 +932,16 @@
         <v>42</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>111</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,16 +952,16 @@
         <v>43</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>388</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,16 +972,16 @@
         <v>44</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>150</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,22 +992,23 @@
         <v>45</v>
       </c>
       <c r="C5">
-        <v>376</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1005,7 +1018,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1027,8 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,8 +1286,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1282,7 +1298,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,8 +1395,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1390,7 +1407,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,8 +1450,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1444,7 +1462,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1680,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
